--- a/Configs/NPCGroups.xlsx
+++ b/Configs/NPCGroups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E483A7A-CBEB-4A4A-ACA8-EFD381E39EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40616C8F-DFAD-4D7C-AF9C-03862AA97CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7732" yWindow="4313" windowWidth="19193" windowHeight="10792" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3945" yWindow="2625" windowWidth="21600" windowHeight="11872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>解锁声望区间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>掉落权重</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -215,22 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50,150</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180,300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -260,6 +240,22 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁声望</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,7 +613,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -641,25 +637,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -667,28 +663,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -699,19 +695,19 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>4</v>
@@ -725,28 +721,28 @@
         <v>50001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
@@ -754,28 +750,28 @@
         <v>50002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -783,28 +779,28 @@
         <v>51001</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -812,28 +808,28 @@
         <v>51002</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/NPCGroups.xlsx
+++ b/Configs/NPCGroups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40616C8F-DFAD-4D7C-AF9C-03862AA97CE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C59438B-4DEE-4997-9EE5-CB1484D691DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="2625" windowWidth="21600" windowHeight="11872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6360" yWindow="4493" windowWidth="25103" windowHeight="12907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -227,10 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21101,22102,23003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>性别倾向</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,6 +252,10 @@
   </si>
   <si>
     <t>string[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41001,41002,42001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -613,7 +613,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -649,10 +649,10 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -681,7 +681,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>7</v>
@@ -704,7 +704,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>4</v>
@@ -730,16 +730,16 @@
         <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>30</v>
@@ -759,7 +759,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>33</v>
@@ -788,16 +788,16 @@
         <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>31</v>
@@ -817,13 +817,13 @@
         <v>29</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>33</v>

--- a/Configs/NPCGroups.xlsx
+++ b/Configs/NPCGroups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C59438B-4DEE-4997-9EE5-CB1484D691DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCBA829-8069-41E0-B138-6190E7FB3A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="4493" windowWidth="25103" windowHeight="12907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1433" yWindow="3360" windowWidth="18315" windowHeight="12908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Jimmy:</t>
@@ -47,6 +48,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -57,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{91591DBD-C2E2-42F4-86D9-ADF6C3A077B1}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{91591DBD-C2E2-42F4-86D9-ADF6C3A077B1}">
       <text>
         <r>
           <rPr>
@@ -89,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,38 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初级1组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级2组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级1组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级2组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,50,70,90,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,60,80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150,180,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>220,240,260</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>31001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -256,6 +226,114 @@
   </si>
   <si>
     <t>41001,41002,42001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头像列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HeadGroups</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts\NPC\Body\101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts\NPC\Body\103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts\NPC\Body\105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Arts\NPC\Body\106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,12,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,18,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级正需求1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级负需求1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级正需求1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级正需求1*2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,24,26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28,30,32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一级双需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一二级双需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,36,38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二级双需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,42,44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三一级需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46,48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三混合需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,7 +341,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,19 +355,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -610,26 +675,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.53125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.1328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.3984375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.06640625" style="1"/>
+    <col min="5" max="5" width="23" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.46484375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.73046875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.3984375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,16 +715,19 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -678,16 +747,19 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -704,10 +776,10 @@
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>4</v>
@@ -715,121 +787,296 @@
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>50001</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>50002</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>51001</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="J6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>51002</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>32</v>
+      <c r="F12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/NPCGroups.xlsx
+++ b/Configs/NPCGroups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCBA829-8069-41E0-B138-6190E7FB3A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8CC3F7-3918-4FD4-B0C8-0E16F3ADD311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1433" yWindow="3360" windowWidth="18315" windowHeight="12908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -237,22 +237,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Arts\NPC\Body\101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arts\NPC\Body\103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arts\NPC\Body\105</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Arts\NPC\Body\106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10,12,14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,6 +318,22 @@
   </si>
   <si>
     <t>54001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Arts\NPC\Body\101"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Arts\NPC\Body\103"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Arts\NPC\Body\105"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Arts\NPC\Body\106"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -796,10 +796,10 @@
         <v>50001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>
@@ -808,7 +808,7 @@
         <v>33</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>25</v>
@@ -828,10 +828,10 @@
         <v>50002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
@@ -840,7 +840,7 @@
         <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>25</v>
@@ -860,10 +860,10 @@
         <v>51001</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
@@ -872,7 +872,7 @@
         <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>25</v>
@@ -892,10 +892,10 @@
         <v>51002</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>21</v>
@@ -904,7 +904,7 @@
         <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>25</v>
@@ -921,13 +921,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
@@ -936,7 +936,7 @@
         <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>25</v>
@@ -953,13 +953,13 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
@@ -968,7 +968,7 @@
         <v>33</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>25</v>
@@ -985,13 +985,13 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>20</v>
@@ -1000,7 +1000,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>25</v>
@@ -1017,13 +1017,13 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>21</v>
@@ -1032,7 +1032,7 @@
         <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>25</v>
@@ -1049,10 +1049,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>23</v>
@@ -1064,7 +1064,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>25</v>

--- a/Configs/NPCGroups.xlsx
+++ b/Configs/NPCGroups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8CC3F7-3918-4FD4-B0C8-0E16F3ADD311}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754CD293-EF46-4212-A968-A32B21B5A6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="16395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10905" yWindow="2003" windowWidth="15983" windowHeight="12907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -335,6 +335,22 @@
   <si>
     <t>"Arts\NPC\Body\106"</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Arts\NPC\Head\101"</t>
+  </si>
+  <si>
+    <t>"Arts\NPC\Head\101"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Arts\NPC\Head\103"</t>
+  </si>
+  <si>
+    <t>"Arts\NPC\Head\105"</t>
+  </si>
+  <si>
+    <t>"Arts\NPC\Head\106"</t>
   </si>
 </sst>
 </file>
@@ -677,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -689,7 +705,7 @@
     <col min="4" max="4" width="18.59765625" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.46484375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.73046875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.53125" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.3984375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.06640625" style="1"/>
@@ -811,7 +827,7 @@
         <v>57</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>28</v>
@@ -843,7 +859,7 @@
         <v>58</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>23</v>
@@ -875,7 +891,7 @@
         <v>59</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>30</v>
@@ -907,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>31</v>
@@ -939,7 +955,7 @@
         <v>57</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>28</v>
@@ -971,7 +987,7 @@
         <v>58</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>23</v>
@@ -1003,7 +1019,7 @@
         <v>59</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>30</v>
@@ -1035,7 +1051,7 @@
         <v>60</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>31</v>
@@ -1067,7 +1083,7 @@
         <v>57</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>28</v>

--- a/Configs/NPCGroups.xlsx
+++ b/Configs/NPCGroups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754CD293-EF46-4212-A968-A32B21B5A6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0617F4F0-DB2A-4690-A5BA-B60569FB9B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10905" yWindow="2003" windowWidth="15983" windowHeight="12907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7208" yWindow="2003" windowWidth="21172" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="81">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,34 +165,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>31001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31001,32001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31001,32001,33001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,22 +189,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>string[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>41001,41002,42001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>头像列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -241,10 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>16,18,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一级正需求1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,100 +217,190 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一级正需求1*2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22,24,26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28,30,32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一级双需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一二级双需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>52001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>53001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Arts\NPC\Body\101"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Arts\NPC\Body\105"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Arts\NPC\Body\106"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Arts\NPC\Head\101"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Arts\NPC\Head\103"</t>
+  </si>
+  <si>
+    <t>"Arts\NPC\Head\105"</t>
+  </si>
+  <si>
+    <t>50002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41001,41002,41003,41004,41005,41006,41007,41008,41009,41010,41011,41012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Arts\NPC\Body\102"</t>
+  </si>
+  <si>
+    <t>"Arts\NPC\Body\103"</t>
+  </si>
+  <si>
+    <t>"Arts\NPC\Head\102"</t>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31001,31002,31003,31004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41001,41002,41003,41004,41005,41006,41007,41008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,16,18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31005,31006,31007,31008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,20,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31009,31010,31011,31012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Arts\NPC\Body\104"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Arts\NPC\Head\104"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双需求单禁忌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,26,28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>52002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34,36,38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二级双需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,42,44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三一级需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46,48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三混合需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53001</t>
+  </si>
+  <si>
+    <t>52003</t>
+  </si>
+  <si>
+    <t>52004</t>
+  </si>
+  <si>
+    <t>52005</t>
+  </si>
+  <si>
+    <t>52006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32001,32002,32003,32004,32005,32006,32007,32008,32009,32010,32011,32012,32013,32014,32015,32016,32017,32018,32019,32020,32021,32022,32023,32024,32025,32026,32027,32028,32029,32030,32031,32032,32033,32034,32035,32036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Arts\NPC\Head\106"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>53002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Arts\NPC\Body\101"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Arts\NPC\Body\103"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Arts\NPC\Body\105"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Arts\NPC\Body\106"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Arts\NPC\Head\101"</t>
-  </si>
-  <si>
-    <t>"Arts\NPC\Head\101"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Arts\NPC\Head\103"</t>
-  </si>
-  <si>
-    <t>"Arts\NPC\Head\105"</t>
-  </si>
-  <si>
-    <t>"Arts\NPC\Head\106"</t>
+  </si>
+  <si>
+    <t>53003</t>
+  </si>
+  <si>
+    <t>53004</t>
+  </si>
+  <si>
+    <t>53005</t>
+  </si>
+  <si>
+    <t>53006</t>
+  </si>
+  <si>
+    <t>双需求双禁忌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,35,40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42001,42002,42003,42004,42005,42006,42007,42008,42009,42010,42011,42012,42013,42014,42015,42016,42017,42018,42019,42020,42021,42022,42023,42024,42025,42026,42027,42028,42029,42030,42031,42032,42033,42034,42035,42036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -408,9 +458,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -691,10 +744,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -702,7 +755,7 @@
     <col min="1" max="1" width="9.06640625" style="1"/>
     <col min="2" max="2" width="18.53125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.1328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.59765625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="23" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.46484375" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.53125" style="1" customWidth="1"/>
@@ -731,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
@@ -763,13 +816,13 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
@@ -792,10 +845,10 @@
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>4</v>
@@ -812,287 +865,639 @@
         <v>50001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
-        <v>50002</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
-        <v>51001</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>51002</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
+        <v>51001</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>33</v>
+      <c r="E10" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>59</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>58</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>22</v>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/NPCGroups.xlsx
+++ b/Configs/NPCGroups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\UnityProject\BOOOM202404\Booom\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0617F4F0-DB2A-4690-A5BA-B60569FB9B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB49D5B9-9184-49AD-B7B9-1187F2911C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7208" yWindow="2003" windowWidth="21172" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2768" yWindow="1725" windowWidth="24622" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="90">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,6 +400,42 @@
   </si>
   <si>
     <t>500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Arts\NPC\Body\107"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Arts\NPC\Head\107"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Arts\NPC\Head\105"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52007</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -958,39 +994,39 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>29</v>
@@ -1005,16 +1041,16 @@
         <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>54</v>
@@ -1022,7 +1058,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>29</v>
@@ -1037,216 +1073,216 @@
         <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>55</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
-        <v>51001</v>
+      <c r="A10" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>63</v>
+      <c r="A13" s="1">
+        <v>51001</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>61</v>
@@ -1261,10 +1297,10 @@
         <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>70</v>
@@ -1278,7 +1314,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>61</v>
@@ -1293,10 +1329,10 @@
         <v>41</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>70</v>
@@ -1310,167 +1346,167 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>79</v>
+      <c r="E18" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>79</v>
+      <c r="E19" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>79</v>
+      <c r="E20" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>79</v>
+      <c r="E21" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>79</v>
+      <c r="E22" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>77</v>
@@ -1485,18 +1521,210 @@
         <v>79</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>80</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>18</v>
       </c>
     </row>
